--- a/src/main/resources/excel-import-loan/import_loan_out_stand_principle.xlsx
+++ b/src/main/resources/excel-import-loan/import_loan_out_stand_principle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pele/job/icoop-cm/icoop-backend/src/main/resources/excel-import-loan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F425000C-D60A-3B43-8750-CC289535A022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D969685-8AB6-5343-BFEA-F92198586624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="26">
   <si>
     <t>หน่วยงาน*</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>กุมภาพันธ์</t>
+  </si>
+  <si>
+    <t>TODO</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -513,9 +516,15 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D2" s="3">
         <v>13050</v>
       </c>
@@ -527,9 +536,15 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D3" s="3">
         <v>858728</v>
       </c>
@@ -541,9 +556,15 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D4" s="3">
         <v>192390</v>
       </c>
@@ -555,9 +576,15 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D5" s="3">
         <v>474021</v>
       </c>
@@ -569,9 +596,15 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D6" s="3">
         <v>402634</v>
       </c>
@@ -583,9 +616,15 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D7" s="3">
         <v>191191</v>
       </c>
@@ -597,9 +636,15 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D8" s="3">
         <v>133976</v>
       </c>
@@ -611,9 +656,15 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D9" s="3">
         <v>111398</v>
       </c>
@@ -625,9 +676,15 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D10" s="3">
         <v>229441</v>
       </c>
@@ -639,9 +696,15 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D11" s="3">
         <v>142107</v>
       </c>
@@ -653,9 +716,15 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D12" s="3">
         <v>192927</v>
       </c>
@@ -667,9 +736,15 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D13" s="3">
         <v>641449</v>
       </c>
@@ -681,9 +756,15 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D14" s="3">
         <v>168368</v>
       </c>
@@ -695,9 +776,15 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D15" s="3">
         <v>150495</v>
       </c>
@@ -709,9 +796,15 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D16" s="3">
         <v>25097</v>
       </c>
@@ -722,10 +815,16 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D17" s="3">
         <v>68252</v>
       </c>
@@ -736,10 +835,16 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D18" s="3">
         <v>61228</v>
       </c>
@@ -750,9 +855,15 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B19" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D19" s="3">
         <v>88322</v>
